--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="R7115ac2f4dac4687"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Ra726a3b1dd1a4983"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9264ffbc94c7490e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R806c0bdf8720457b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb197ced25d90400f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R45de142759634756"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R76a7cf2fcb324509"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raae8ff46a1f64789"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R84384bcad606445b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2b7fe6444ef74366"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd72decedafd44a66"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra5e746225f624788"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R485587aa6fd64ca9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc5c97a57c67643ee"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ref8fdcd140124d78"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2806ce89a69649f4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9cb9aecaaf264b2c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8a96c27feb3848b9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R13941b7cd1ad4551"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdc98c42682ea4132"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Ra726a3b1dd1a4983"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rb0e13f2d6fee4a0c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R806c0bdf8720457b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R59f1726a3a214304"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R45de142759634756"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7306eeea49f748a2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raae8ff46a1f64789"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rea331d229aa046ed"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2b7fe6444ef74366"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rffc88030171c4b5a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra5e746225f624788"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb9021aea445545d8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc5c97a57c67643ee"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb48b93b2487f4a4c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2806ce89a69649f4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2d37da1fa3d348ca"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8a96c27feb3848b9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R716b235bbabd48d8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdc98c42682ea4132"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcb7735bbe9414227"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rb0e13f2d6fee4a0c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rd460f9a44868433c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R59f1726a3a214304"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd0885917e87a4f19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7306eeea49f748a2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra70048b9166d4318"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rea331d229aa046ed"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R865c234140d5486d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rffc88030171c4b5a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4e08e727dbeb490b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb9021aea445545d8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R70632a1e8b2b40e7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb48b93b2487f4a4c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra8d4b9867660431e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2d37da1fa3d348ca"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7679018d3a5d4fa5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R716b235bbabd48d8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8adc621fa6b04e51"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcb7735bbe9414227"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5edda28ef63244eb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rd460f9a44868433c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rc806b75e25c242c9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd0885917e87a4f19"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R189f9de7bfe246be"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra70048b9166d4318"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb922f9a22f844f68"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R865c234140d5486d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R558b431cbc0b4cad"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4e08e727dbeb490b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdb8afd6daa9a4b06"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R70632a1e8b2b40e7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R757c3413ad4e4030"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra8d4b9867660431e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2f8c8eaef0fa42a7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7679018d3a5d4fa5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R45af96773ace4804"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8adc621fa6b04e51"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4a38ea7851654e78"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5edda28ef63244eb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbf96833ba81e4ed3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rc806b75e25c242c9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="R6b703c615d534241"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R189f9de7bfe246be"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R236ad7d7a0f84c82"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb922f9a22f844f68"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R797d428be0884f23"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R558b431cbc0b4cad"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6afee141d8514213"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdb8afd6daa9a4b06"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd1d0c099596f44f5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R757c3413ad4e4030"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd179e9b6dd7d40a2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2f8c8eaef0fa42a7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R35cfa636fa0142c6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R45af96773ace4804"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4bc243838abe4023"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4a38ea7851654e78"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R94ff8b40ecc14027"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbf96833ba81e4ed3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9f2470176178422c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="R6b703c615d534241"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rcd2952fb4a214bf6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R236ad7d7a0f84c82"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R922a827a97134b24"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R797d428be0884f23"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0b7c3d4510ff44e5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6afee141d8514213"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R74dd991d562b4610"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd1d0c099596f44f5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R89213bec46bc4fbf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd179e9b6dd7d40a2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd103787a7fcc46f4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R35cfa636fa0142c6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf812f1b497004793"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4bc243838abe4023"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdab44274e6bb4239"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R94ff8b40ecc14027"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R993c1dfc95224885"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9f2470176178422c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0679515a990a4262"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rcd2952fb4a214bf6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rc1c2cd63bd774f8f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R922a827a97134b24"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra7fe2ac915f04a30"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0b7c3d4510ff44e5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3262f4d50cb442ba"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R74dd991d562b4610"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd04bda210de0401a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R89213bec46bc4fbf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R860e621d1ce04750"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd103787a7fcc46f4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c493b7aaaf44b35"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf812f1b497004793"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0ea105522cf14444"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdab44274e6bb4239"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6bfd9f66e7884cc5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R993c1dfc95224885"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f0a49c1ee974482"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0679515a990a4262"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6e1a48f862614e01"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rc1c2cd63bd774f8f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="R4f763d752f664fa9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra7fe2ac915f04a30"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R49d755dc13c44c5d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3262f4d50cb442ba"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0346c974074a48c3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd04bda210de0401a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R60ee8258d74944db"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R860e621d1ce04750"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R28f62381232643be"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c493b7aaaf44b35"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3fa66dbf4e8e48f3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0ea105522cf14444"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5dcdee3698e4947"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6bfd9f66e7884cc5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R676e54818e264650"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f0a49c1ee974482"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra2535f667d8d454e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6e1a48f862614e01"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd4ea037ad7da40a1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="R4f763d752f664fa9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rbf80fcb8d5df47b3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R49d755dc13c44c5d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R776183fe00384c88"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0346c974074a48c3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R04ffb74001c74078"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R60ee8258d74944db"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6382d28d233d42e3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R28f62381232643be"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47dd8ebfdf464775"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3fa66dbf4e8e48f3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra0cf6e7fff524918"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5dcdee3698e4947"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7d6ffc133a3f472c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R676e54818e264650"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R771fcd02a0d64354"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra2535f667d8d454e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Reb61532d6c6f46e3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd4ea037ad7da40a1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd354f8f3132841dd"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rbf80fcb8d5df47b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="R025df08206c7474f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R776183fe00384c88"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7cbe478fbe4e420e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R04ffb74001c74078"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R42a92ff83b3c4efc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6382d28d233d42e3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rab352c4ccfbb4365"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47dd8ebfdf464775"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc653ddda08654a0e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra0cf6e7fff524918"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R77ffa0dc6ba9425a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7d6ffc133a3f472c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1d0bedf4a5c74807"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R771fcd02a0d64354"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R41813a3d2bfa4986"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Reb61532d6c6f46e3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd2fc64ab03134133"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd354f8f3132841dd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd7a565ab5d7447fd"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="R025df08206c7474f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="R79382eeab22b4d66"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7cbe478fbe4e420e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R999e29bf00f0465e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R42a92ff83b3c4efc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1bf2ec108ad843d5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rab352c4ccfbb4365"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R28f3ae01ae9b41e3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc653ddda08654a0e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdec939c8fd684fee"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R77ffa0dc6ba9425a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7080ba4c20946de"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1d0bedf4a5c74807"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R91bb111cf21a439a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R41813a3d2bfa4986"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra61465ea51cf432f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd2fc64ab03134133"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8b5d25435d064cbe"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd7a565ab5d7447fd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R20a68dc7bcfe4931"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/107_ChartColorPalette.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="R79382eeab22b4d66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color Palette" sheetId="1" r:id="Rd61aaa47127c4817"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -837,7 +837,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R999e29bf00f0465e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R72b776304a374f4f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,7 +867,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1bf2ec108ad843d5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R141c173f55404713"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,7 +897,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R28f3ae01ae9b41e3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf2ca5123ca064125"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -927,7 +927,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdec939c8fd684fee"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rffe3d7d7262e4904"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -957,7 +957,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7080ba4c20946de"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R28374eee512a4ac2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -987,7 +987,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R91bb111cf21a439a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbfdb2b01adbd4cf2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1017,7 +1017,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra61465ea51cf432f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2a573639cc724132"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1047,7 +1047,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8b5d25435d064cbe"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R36bcd5e6954049de"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1132,6 +1132,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R20a68dc7bcfe4931"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2faad1f70304432d"/>
 </x:worksheet>
 </file>